--- a/biology/Microbiologie/Ceratomyxa/Ceratomyxa.xlsx
+++ b/biology/Microbiologie/Ceratomyxa/Ceratomyxa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceratomyxa est un genre de myxozoaires.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (2 novembre 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (2 novembre 2013) :
 Ceratomyxa acanthuri
 Ceratomyxa aggregata
 Ceratomyxa allantoidea
@@ -582,7 +596,7 @@
 Ceratomyxa truncata
 Ceratomyxa uncinata
 Ceratomyxa vepallida
-Selon NCBI  (2 novembre 2013)[2] :
+Selon NCBI  (2 novembre 2013) :
 Ceratomyxa aegyptiaca
 Ceratomyxa anko
 Ceratomyxa archamiae
@@ -640,7 +654,7 @@
 Ceratomyxa vikrami
 Ceratomyxa whippsi
 Ceratomyxa yokoyamai
-Selon World Register of Marine Species                               (2 novembre 2013)[3] :
+Selon World Register of Marine Species                               (2 novembre 2013) :
 Ceratomyxa abbreviata (Davis, 1917)
 Ceratomyxa acanthopagri (Zhao &amp; Song, 2003)
 Ceratomyxa acanthuri Kpatcha, Diebakate, Faye &amp; Toguebaye, 1996
